--- a/biology/Botanique/Morchella_herediana/Morchella_herediana.xlsx
+++ b/biology/Botanique/Morchella_herediana/Morchella_herediana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morchella herediana est une espèce de champignons comestibles d'Amérique centrale de la famille des Morchellaceae (ordre des Pezizales).
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de la province de Heredia au Costa Rica. Elle se rencontre aux alentours de 1 700 m d'altitude en présence du cyprès Cupressus benthami.
 </t>
@@ -542,7 +556,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chapeau de 4,5 à 12 cm de haut, allongé, beige, à alvéoles irrégulières.
 Pied de 4 à 7 cm.</t>
@@ -573,7 +589,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellent comestible
 </t>
@@ -604,9 +622,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Morchella herediana Gomez, 1971[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Morchella herediana Gomez, 1971.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(es) L.D. Gómez, « Un nuevo Discomycete operculado de America Central: Morchella herediana, nov. sp. », Darwiniana, Argentine, vol. 16,‎ 1971, p. 417-426 (ISSN 0011-6793).</t>
         </is>
